--- a/results/I3_N5_M2_T15_C100_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676457</v>
+        <v>839.9596863901648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06200003623962402</v>
+        <v>0.03900003433227539</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>4.183741074426427e-12</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.74821864071318</v>
+        <v>3.914294316987418</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.483672927198604</v>
+        <v>3.914294316987418</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2056.389999999806</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>304.36</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,23 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -769,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.695361957914272</v>
+        <v>11.23964284834949</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.44590858474082</v>
+        <v>7.489096221522964</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,57 +957,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1077,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>113.907999999994</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
@@ -1088,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>125.1650000000657</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>77.22300000002181</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="6">
@@ -1110,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>181.1499999999178</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="7">
@@ -1121,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>280.4739999998902</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>125.1650000000971</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
@@ -1143,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>280.4739999998851</v>
+        <v>103.4</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25.16500000009637</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1201,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>180.4739999998842</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1259,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1270,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.624000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1281,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.278</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1292,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16.2</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,34 +1291,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
